--- a/letterlang test/ref/letterorderfull.xlsx
+++ b/letterlang test/ref/letterorderfull.xlsx
@@ -490,22 +490,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ξ</t>
+          <t>η</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>letter/lettgr073.png</t>
+          <t>letter/lettgr143.png</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
     </row>
@@ -520,94 +520,94 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>พ</t>
+          <t>ซ</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>letter/lettth153.png</t>
+          <t>letter/lettth072.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ψ</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>letter/lettgr152.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>π</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>letter/letten151.png</t>
+          <t>letter/lettgr141.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ៗ</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>letter/lettkh055.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
@@ -616,134 +616,134 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>γ</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>letter/lettgr092.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>ท</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettth112.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ς</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>letter/lettgr061.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ห</t>
+          <t>β</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>letter/lettth171.png</t>
+          <t>letter/lettgr021.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>b</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/letten021.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>v</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ห</t>
+          <t>ឆ</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>letter/lettth171.png</t>
+          <t>letter/lettkh159.png</t>
         </is>
       </c>
     </row>
@@ -752,32 +752,32 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ม</t>
+          <t>o</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>letter/lettth142.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>Φ</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettgr065.png</t>
         </is>
       </c>
     </row>
@@ -789,63 +789,63 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Ω</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>letter/lettgr066.png</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>c</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>letter/letten061.png</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>θ</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>letter/lettgr063.png</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>β</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>letter/lettgr021.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>letter/letten021.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
     </row>
@@ -854,32 +854,32 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>η</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettgr143.png</t>
         </is>
       </c>
     </row>
@@ -888,32 +888,32 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>บ</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>letter/lettth023.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
     </row>
@@ -922,140 +922,140 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>ឥ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettkh013.png</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>j</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ធ</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettkh157.png</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>q</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ឥ</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>letter/lettkh013.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ฃ</t>
+          <t>ง</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/lettth041.png</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>letter/letten041.png</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>ฝ</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>letter/lettth152.png</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>letter/letten142.png</t>
         </is>
       </c>
     </row>
@@ -1095,29 +1095,29 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>letter/letten101.png</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>ก</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>letter/lettth011.png</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>letter/letten101.png</t>
         </is>
       </c>
     </row>
@@ -1129,29 +1129,29 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ធ</t>
+          <t>j</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>letter/lettkh157.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>ឥ</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettkh013.png</t>
         </is>
       </c>
     </row>
@@ -1160,106 +1160,106 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ม</t>
+          <t>o</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>letter/lettth142.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>θ</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>c</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>letter/letten031.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ศ</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>letter/lettth161.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ฏ</t>
+          <t>l</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>letter/lettth092.png</t>
+          <t>letter/letten112.png</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>ឈ</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettkh083.png</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -1268,26 +1268,26 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ៗ</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>letter/lettkh055.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
     </row>
@@ -1302,60 +1302,60 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>พ</t>
+          <t>ท</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>letter/lettth153.png</t>
+          <t>letter/lettth112.png</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>Φ</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettgr065.png</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -1374,56 +1374,56 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ป</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>letter/lettth024.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>k</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/letten131.png</t>
         </is>
       </c>
     </row>
@@ -1432,32 +1432,32 @@
         <v>2</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>θ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ฐ</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>letter/lettth101.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
@@ -1469,29 +1469,29 @@
         <v>3</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>γ</t>
+          <t>c</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>letter/lettgr092.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
@@ -1500,100 +1500,100 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ឯ</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>letter/lettkh155.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>w</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/letten152.png</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ง</t>
+          <t>Ψ</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>letter/lettth041.png</t>
+          <t>letter/lettgr152.png</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ฏ</t>
+          <t>β</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>letter/lettth092.png</t>
+          <t>letter/lettgr021.png</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>b</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/letten021.png</t>
         </is>
       </c>
     </row>
@@ -1602,100 +1602,100 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ฌ</t>
+          <t>ท</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>letter/lettth081.png</t>
+          <t>letter/lettth112.png</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>η</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>letter/lettgr143.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ฮ</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>letter/lettth182.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Σ</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>letter/lettgr072.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>φ</t>
+          <t>ฐ</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>letter/lettgr091.png</t>
+          <t>letter/lettth101.png</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>อ</t>
+          <t>j</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>letter/lettth181.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
     </row>
@@ -1710,60 +1710,60 @@
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ឡ</t>
+          <t>ព</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>letter/lettkh092.png</t>
+          <t>letter/lettkh035.png</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>q</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="n">
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>c</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>ឯ</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettkh155.png</t>
         </is>
       </c>
     </row>
@@ -1772,32 +1772,32 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ป</t>
+          <t>π</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>letter/lettth024.png</t>
+          <t>letter/lettgr141.png</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
     </row>
@@ -1806,32 +1806,32 @@
         <v>2</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ς</t>
+          <t>k</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>letter/lettgr061.png</t>
+          <t>letter/letten131.png</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
@@ -1840,134 +1840,134 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>ម</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettkh023.png</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ฏ</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth092.png</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>ฏ</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/lettth092.png</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Σ</t>
+          <t>c</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>letter/lettgr072.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ฮ</t>
+          <t>θ</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>letter/lettth182.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
     </row>
@@ -1982,32 +1982,32 @@
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>σ</t>
+          <t>π</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>letter/lettgr062.png</t>
+          <t>letter/lettgr141.png</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -2016,35 +2016,35 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>ฝ</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ม</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>letter/lettth142.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -2054,22 +2054,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>letter/letten062.png</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>ร</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>letter/lettth132.png</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>δ</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>letter/lettgr067.png</t>
         </is>
       </c>
     </row>
@@ -2081,29 +2081,29 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ศ</t>
+          <t>o</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>letter/lettth161.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>letter/letten031.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
     </row>
@@ -2112,41 +2112,41 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>v</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -2156,22 +2156,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>θ</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ฏ</t>
+          <t>c</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>letter/lettth092.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
@@ -2180,32 +2180,32 @@
         <v>2</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ς</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>letter/lettgr061.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>ឰ</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettkh091.png</t>
         </is>
       </c>
     </row>
@@ -2214,66 +2214,66 @@
         <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>letter/letten092.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ฃ</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>θ</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
@@ -2292,90 +2292,90 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ก</t>
+          <t>ឯ</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>letter/lettth011.png</t>
+          <t>letter/lettkh155.png</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>c</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>letter/letten101.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ฃ</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>ภ</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettth013.png</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ฃ</t>
+          <t>ឥ</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/lettkh013.png</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>j</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>letter/letten092.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
     </row>
@@ -2384,134 +2384,134 @@
         <v>2</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>ឰ</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/lettkh091.png</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>e</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" t="n">
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>q</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>ព</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettkh035.png</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>θ</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>Λ</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettgr012.png</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>a</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/letten011.png</t>
         </is>
       </c>
     </row>
@@ -2530,22 +2530,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ៗ</t>
+          <t>ឯ</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>letter/lettkh055.png</t>
+          <t>letter/lettkh155.png</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>c</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
@@ -2554,32 +2554,32 @@
         <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ឆ</t>
+          <t>n</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>letter/lettkh159.png</t>
+          <t>letter/letten142.png</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>ฝ</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
     </row>
@@ -2591,63 +2591,63 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>ឈ</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/lettkh083.png</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ឡ</t>
+          <t>l</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>letter/lettkh092.png</t>
+          <t>letter/letten112.png</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>o</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>γ</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>letter/lettgr092.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
     </row>
@@ -2662,26 +2662,26 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>φ</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>letter/lettgr091.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>อ</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>letter/lettth181.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
@@ -2693,29 +2693,29 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>v</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
     </row>
@@ -2727,29 +2727,29 @@
         <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>θ</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>c</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
@@ -2764,26 +2764,26 @@
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ฐ</t>
+          <t>ฝ</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>letter/lettth101.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>n</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/letten142.png</t>
         </is>
       </c>
     </row>
@@ -2798,66 +2798,66 @@
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ឆ</t>
+          <t>ៗ</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>letter/lettkh159.png</t>
+          <t>letter/lettkh055.png</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>e</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>θ</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
         <v>2</v>
@@ -2866,60 +2866,60 @@
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ឰ</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>letter/lettkh091.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>Ω</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettgr066.png</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>c</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
@@ -2928,66 +2928,66 @@
         <v>2</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>ព</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettkh035.png</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>q</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
         <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>letter/letten151.png</t>
+          <t>letter/lettgr064.png</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Ψ</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>letter/lettgr152.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
@@ -2996,66 +2996,66 @@
         <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>ฬ</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth155.png</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>ς</t>
+          <t>ซ</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>letter/lettgr061.png</t>
+          <t>letter/lettth072.png</t>
         </is>
       </c>
     </row>
@@ -3064,32 +3064,32 @@
         <v>2</v>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ឥ</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>letter/lettkh013.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>g</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
     </row>
@@ -3101,63 +3101,63 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>t</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/letten181.png</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ม</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth142.png</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>ៗ</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>letter/letten092.png</t>
+          <t>letter/lettkh055.png</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ฃ</t>
+          <t>e</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
     </row>
@@ -3169,29 +3169,29 @@
         <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ឰ</t>
+          <t>l</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>letter/lettkh091.png</t>
+          <t>letter/letten112.png</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>ឈ</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/lettkh083.png</t>
         </is>
       </c>
     </row>
@@ -3200,106 +3200,106 @@
         <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
         <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>ម</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettkh023.png</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ξ</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>letter/lettgr073.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>k</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/letten131.png</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ឯ</t>
+          <t>ฬ</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>letter/lettkh155.png</t>
+          <t>letter/lettth155.png</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85" t="n">
         <v>3</v>
@@ -3308,60 +3308,60 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/letten011.png</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Ξ</t>
+          <t>Λ</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>letter/lettgr073.png</t>
+          <t>letter/lettgr012.png</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
         <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>η</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettgr143.png</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>θ</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
     </row>
@@ -3373,63 +3373,63 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ฐ</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth101.png</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>j</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B88" t="n">
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>3</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>ឰ</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/lettkh091.png</t>
         </is>
       </c>
     </row>
@@ -3438,32 +3438,32 @@
         <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>c</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
     </row>
@@ -3472,38 +3472,38 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>Ψ</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettgr152.png</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>ធ</t>
+          <t>w</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>letter/lettkh157.png</t>
+          <t>letter/letten152.png</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
         <v>2</v>
@@ -3512,94 +3512,94 @@
         <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
         <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>θ</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettgr064.png</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ฅ</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>letter/letten021.png</t>
+          <t>letter/lettth032.png</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>β</t>
+          <t>ត</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>letter/lettgr021.png</t>
+          <t>letter/lettkh032.png</t>
         </is>
       </c>
     </row>
@@ -3608,38 +3608,38 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>q</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>letter/letten171.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>ฟ</t>
+          <t>ធ</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>letter/lettth154.png</t>
+          <t>letter/lettkh157.png</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
         <v>3</v>
@@ -3648,60 +3648,60 @@
         <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ψ</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>letter/lettgr152.png</t>
+          <t>letter/lettgr064.png</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>letter/letten151.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ม</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth142.png</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>พ</t>
+          <t>t</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>letter/lettth153.png</t>
+          <t>letter/letten181.png</t>
         </is>
       </c>
     </row>
@@ -3710,66 +3710,66 @@
         <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ฃ</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/letten021.png</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>β</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettgr021.png</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>letter/letten161.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Γ</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>letter/lettgr161.png</t>
+          <t>letter/letten031.png</t>
         </is>
       </c>
     </row>
@@ -3784,26 +3784,26 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>j</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ฃ</t>
+          <t>ฐ</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/lettth101.png</t>
         </is>
       </c>
     </row>
@@ -3812,32 +3812,32 @@
         <v>1</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>ญ</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettth082.png</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
     </row>
@@ -3846,32 +3846,32 @@
         <v>1</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>ฬ</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettth155.png</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -3890,62 +3890,62 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ศ</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>letter/lettth161.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>letter/letten031.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ឡ</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>letter/lettkh092.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>q</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -3954,26 +3954,26 @@
         <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>ก</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettth011.png</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>h</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten101.png</t>
         </is>
       </c>
     </row>
@@ -3988,16 +3988,16 @@
         <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ៗ</t>
+          <t>ឰ</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>letter/lettkh055.png</t>
+          <t>letter/lettkh091.png</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4013,7 +4013,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -4022,60 +4022,60 @@
         <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ฐ</t>
+          <t>y</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>letter/lettth101.png</t>
+          <t>letter/letten092.png</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
     </row>
@@ -4090,26 +4090,26 @@
         <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>ห</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>letter/lettth171.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" t="n">
         <v>2</v>
@@ -4128,22 +4128,22 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>ឆ</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/lettkh159.png</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>v</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
     </row>
@@ -4152,100 +4152,100 @@
         <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>ท</t>
+          <t>η</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>letter/lettth112.png</t>
+          <t>letter/lettgr143.png</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
         <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Γ</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>letter/lettgr161.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>π</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>letter/letten161.png</t>
+          <t>letter/lettgr141.png</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>η</t>
+          <t>h</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>letter/lettgr143.png</t>
+          <t>letter/letten101.png</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>ฌ</t>
+          <t>ก</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>letter/lettth081.png</t>
+          <t>letter/lettth011.png</t>
         </is>
       </c>
     </row>
@@ -4254,32 +4254,32 @@
         <v>1</v>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
     </row>
@@ -4288,32 +4288,32 @@
         <v>1</v>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ภ</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>letter/lettth013.png</t>
+          <t>letter/letten031.png</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>ភ</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>letter/lettkh012.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
     </row>
@@ -4328,7 +4328,7 @@
         <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4342,46 +4342,46 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>ท</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>letter/lettth112.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>ฏ</t>
+          <t>ៗ</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>letter/lettth092.png</t>
+          <t>letter/lettkh055.png</t>
         </is>
       </c>
     </row>
@@ -4390,32 +4390,32 @@
         <v>2</v>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>u</t>
+          <t>c</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>letter/letten151.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Ψ</t>
+          <t>ឯ</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>letter/lettgr152.png</t>
+          <t>letter/lettkh155.png</t>
         </is>
       </c>
     </row>
@@ -4424,134 +4424,134 @@
         <v>1</v>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ฌ</t>
+          <t>ง</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>letter/lettth081.png</t>
+          <t>letter/lettth041.png</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>η</t>
+          <t>g</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>letter/lettgr143.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Σ</t>
+          <t>j</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>letter/lettgr072.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>ฮ</t>
+          <t>ឥ</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>letter/lettth182.png</t>
+          <t>letter/lettkh013.png</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ป</t>
+          <t>q</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>letter/lettth024.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>ធ</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettkh157.png</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>c</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>θ</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
     </row>
@@ -4560,66 +4560,66 @@
         <v>2</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>o</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>letter/letten171.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>ฟ</t>
+          <t>Φ</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>letter/lettth154.png</t>
+          <t>letter/lettgr065.png</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>2</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ភ</t>
+          <t>ม</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>letter/lettkh012.png</t>
+          <t>letter/lettth142.png</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>ภ</t>
+          <t>t</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>letter/lettth013.png</t>
+          <t>letter/letten181.png</t>
         </is>
       </c>
     </row>
@@ -4628,32 +4628,32 @@
         <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ฏ</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth092.png</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>σ</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>letter/lettgr062.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
@@ -4662,32 +4662,32 @@
         <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>ภ</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth013.png</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
     </row>
@@ -4696,32 +4696,32 @@
         <v>1</v>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" t="n">
         <v>2</v>
       </c>
       <c r="D126" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>ត</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettkh032.png</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ฅ</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth032.png</t>
         </is>
       </c>
     </row>
@@ -4730,32 +4730,32 @@
         <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ภ</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>letter/lettth013.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>ភ</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>letter/lettkh012.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
@@ -4764,38 +4764,38 @@
         <v>1</v>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>อ</t>
+          <t>ง</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>letter/lettth181.png</t>
+          <t>letter/lettth041.png</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>φ</t>
+          <t>g</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>letter/lettgr091.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B129" t="n">
         <v>3</v>
@@ -4808,22 +4808,22 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>อ</t>
+          <t>c</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>letter/lettth181.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>φ</t>
+          <t>Ω</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>letter/lettgr091.png</t>
+          <t>letter/lettgr066.png</t>
         </is>
       </c>
     </row>
@@ -4832,32 +4832,32 @@
         <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
     </row>
@@ -4869,29 +4869,29 @@
         <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ឥ</t>
+          <t>q</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>letter/lettkh013.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>ព</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettkh035.png</t>
         </is>
       </c>
     </row>
@@ -4906,26 +4906,26 @@
         <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>letter/letten021.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>β</t>
+          <t>Ω</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>letter/lettgr021.png</t>
+          <t>letter/lettgr066.png</t>
         </is>
       </c>
     </row>
@@ -4934,100 +4934,100 @@
         <v>2</v>
       </c>
       <c r="B133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ឰ</t>
+          <t>k</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>letter/lettkh091.png</t>
+          <t>letter/letten131.png</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Ξ</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>letter/lettgr073.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>letter/letten142.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>ឡ</t>
+          <t>ญ</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>letter/lettkh092.png</t>
+          <t>letter/lettth082.png</t>
         </is>
       </c>
     </row>
@@ -5036,41 +5036,41 @@
         <v>2</v>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Γ</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>letter/lettgr161.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>letter/letten161.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -5080,56 +5080,56 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
+          <t>ย</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>letter/lettth025.png</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
           <t>q</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>letter/letten051.png</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>ធ</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>letter/lettkh157.png</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>ฝ</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>n</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/letten142.png</t>
         </is>
       </c>
     </row>
@@ -5144,26 +5144,26 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>บ</t>
+          <t>ภ</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>letter/lettth023.png</t>
+          <t>letter/lettth013.png</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
     </row>
@@ -5172,66 +5172,66 @@
         <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>ม</t>
+          <t>ญ</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>letter/lettth142.png</t>
+          <t>letter/lettth082.png</t>
         </is>
       </c>
     </row>
@@ -5243,29 +5243,29 @@
         <v>3</v>
       </c>
       <c r="C142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>θ</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/letten021.png</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>β</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettgr021.png</t>
         </is>
       </c>
     </row>
@@ -5274,100 +5274,100 @@
         <v>1</v>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>ฏ</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth092.png</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
         <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>ง</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettth041.png</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
         <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
         <v>2</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>ត</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettkh032.png</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ฅ</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth032.png</t>
         </is>
       </c>
     </row>
@@ -5379,63 +5379,63 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>y</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten092.png</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>o</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>letter/letten031.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>ศ</t>
+          <t>θ</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>letter/lettth161.png</t>
+          <t>letter/lettgr063.png</t>
         </is>
       </c>
     </row>
@@ -5447,72 +5447,72 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ซ</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth072.png</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="n">
         <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ឈ</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettkh083.png</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>ง</t>
+          <t>l</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>letter/lettth041.png</t>
+          <t>letter/letten112.png</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -5522,28 +5522,28 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ท</t>
+          <t>o</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>letter/lettth112.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -5552,60 +5552,60 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>letter/letten101.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>ก</t>
+          <t>y</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>letter/lettth011.png</t>
+          <t>letter/letten092.png</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ឯ</t>
+          <t>ฬ</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>letter/lettkh155.png</t>
+          <t>letter/lettth155.png</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
     </row>
@@ -5614,32 +5614,32 @@
         <v>2</v>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>n</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/letten142.png</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ฝ</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
     </row>
@@ -5648,32 +5648,32 @@
         <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>พ</t>
+          <t>q</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>letter/lettth153.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
@@ -5685,29 +5685,29 @@
         <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ซ</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettth072.png</t>
         </is>
       </c>
     </row>
@@ -5716,66 +5716,66 @@
         <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>ย</t>
+          <t>Θ</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>letter/lettth025.png</t>
+          <t>letter/lettgr064.png</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157" t="n">
         <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
+          <t>ធ</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>letter/lettkh157.png</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
           <t>q</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>letter/letten051.png</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>ย</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
@@ -5784,72 +5784,72 @@
         <v>1</v>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
         <v>2</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>σ</t>
+          <t>v</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>letter/lettgr062.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>θ</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>ម</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettkh023.png</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -5858,32 +5858,32 @@
         <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>ฟ</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>letter/lettth154.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>ฝ</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>letter/letten171.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
         <v>2</v>
@@ -5892,26 +5892,26 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>ឆ</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>letter/lettkh159.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
     </row>
@@ -5926,32 +5926,32 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ห</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>letter/lettth171.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>δ</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>letter/lettgr067.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" t="n">
         <v>2</v>
@@ -5964,22 +5964,22 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>letter/letten071.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>ឰ</t>
+          <t>ម</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>letter/lettkh091.png</t>
+          <t>letter/lettkh023.png</t>
         </is>
       </c>
     </row>
@@ -5988,32 +5988,32 @@
         <v>2</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>letter/letten101.png</t>
+          <t>letter/letten071.png</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>ก</t>
+          <t>ៗ</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>letter/lettth011.png</t>
+          <t>letter/lettkh055.png</t>
         </is>
       </c>
     </row>
@@ -6025,29 +6025,29 @@
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>y</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/letten092.png</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>letter/letten041.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
@@ -6056,32 +6056,32 @@
         <v>2</v>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>Λ</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettgr012.png</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>ឥ</t>
+          <t>a</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>letter/lettkh013.png</t>
+          <t>letter/letten011.png</t>
         </is>
       </c>
     </row>
@@ -6093,69 +6093,69 @@
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ง</t>
+          <t>v</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>letter/lettth041.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ป</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth024.png</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ท</t>
+          <t>c</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>letter/lettth112.png</t>
+          <t>letter/letten061.png</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -6164,26 +6164,26 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ฉ</t>
+          <t>g</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>letter/lettth061.png</t>
+          <t>letter/letten091.png</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
     </row>
@@ -6192,32 +6192,32 @@
         <v>2</v>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>ก</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettth011.png</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>ឆ</t>
+          <t>h</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>letter/lettkh159.png</t>
+          <t>letter/letten101.png</t>
         </is>
       </c>
     </row>
@@ -6226,22 +6226,22 @@
         <v>2</v>
       </c>
       <c r="B171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>2</v>
       </c>
       <c r="D171" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>γ</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>letter/lettgr092.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6257,35 +6257,35 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>ฅ</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>letter/letten181.png</t>
+          <t>letter/lettth032.png</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>ฝ</t>
+          <t>ត</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>letter/lettth152.png</t>
+          <t>letter/lettkh032.png</t>
         </is>
       </c>
     </row>
@@ -6294,32 +6294,32 @@
         <v>2</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>Ψ</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/lettgr152.png</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>ฐ</t>
+          <t>w</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>letter/lettth101.png</t>
+          <t>letter/letten152.png</t>
         </is>
       </c>
     </row>
@@ -6331,69 +6331,69 @@
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ง</t>
+          <t>q</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>letter/lettth041.png</t>
+          <t>letter/letten051.png</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ย</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth025.png</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>v</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>บ</t>
+          <t>ឆ</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>letter/lettth023.png</t>
+          <t>letter/lettkh159.png</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -6402,202 +6402,202 @@
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ฃ</t>
+          <t>j</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>letter/lettth022.png</t>
+          <t>letter/letten121.png</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>ฐ</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>letter/letten092.png</t>
+          <t>letter/lettth101.png</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
         <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>ร</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettth132.png</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>บ</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>letter/lettth023.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ฟ</t>
+          <t>ญ</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>letter/lettth154.png</t>
+          <t>letter/lettth082.png</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>ς</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>letter/letten171.png</t>
+          <t>letter/lettgr061.png</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>η</t>
+          <t>d</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>letter/lettgr143.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>ฌ</t>
+          <t>ฃ</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>letter/lettth081.png</t>
+          <t>letter/lettth022.png</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>θ</t>
+          <t>พ</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>letter/lettgr063.png</t>
+          <t>letter/lettth153.png</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" t="n">
         <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>β</t>
+          <t>ឭ</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>letter/lettgr021.png</t>
+          <t>letter/lettkh031.png</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ท</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>letter/letten021.png</t>
+          <t>letter/lettth112.png</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -6610,22 +6610,22 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>letter/letten091.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/letten031.png</t>
         </is>
       </c>
     </row>
@@ -6637,29 +6637,29 @@
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>v</t>
+          <t>ฝ</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>letter/letten153.png</t>
+          <t>letter/lettth152.png</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>ป</t>
+          <t>d</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>letter/lettth024.png</t>
+          <t>letter/letten041.png</t>
         </is>
       </c>
     </row>
@@ -6671,69 +6671,69 @@
         <v>2</v>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ភ</t>
+          <t>ฉ</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>letter/lettkh012.png</t>
+          <t>letter/lettth061.png</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>ภ</t>
+          <t>គ</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>letter/lettth013.png</t>
+          <t>letter/lettkh034.png</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ล</t>
+          <t>w</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>letter/lettth052.png</t>
+          <t>letter/letten152.png</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>ឭ</t>
+          <t>Ψ</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>letter/lettkh031.png</t>
+          <t>letter/lettgr152.png</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186" t="n">
         <v>3</v>
@@ -6746,28 +6746,28 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>ล</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>letter/letten161.png</t>
+          <t>letter/lettth052.png</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Γ</t>
+          <t>Σ</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>letter/lettgr161.png</t>
+          <t>letter/lettgr072.png</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
         <v>2</v>
@@ -6776,94 +6776,94 @@
         <v>2</v>
       </c>
       <c r="D187" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ធ</t>
+          <t>ឮ</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>letter/lettkh157.png</t>
+          <t>letter/lettkh033.png</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>q</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>letter/letten051.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>letter/letten062.png</t>
+          <t>letter/letten031.png</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Ω</t>
+          <t>ศ</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>letter/lettgr066.png</t>
+          <t>letter/lettth161.png</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ฅ</t>
+          <t>Φ</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>letter/lettth032.png</t>
+          <t>letter/lettgr065.png</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>ត</t>
+          <t>o</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>letter/lettkh032.png</t>
+          <t>letter/letten062.png</t>
         </is>
       </c>
     </row>
@@ -6875,29 +6875,29 @@
         <v>3</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ฮ</t>
+          <t>ω</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>letter/lettth182.png</t>
+          <t>letter/lettgr153.png</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Σ</t>
+          <t>ภ</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>letter/lettgr072.png</t>
+          <t>letter/lettth013.png</t>
         </is>
       </c>
     </row>
@@ -6906,32 +6906,32 @@
         <v>2</v>
       </c>
       <c r="B191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ឯ</t>
+          <t>t</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>letter/lettkh155.png</t>
+          <t>letter/letten181.png</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>ม</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>letter/letten061.png</t>
+          <t>letter/lettth142.png</t>
         </is>
       </c>
     </row>
@@ -6946,32 +6946,32 @@
         <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>គ</t>
+          <t>ឆ</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>letter/lettkh034.png</t>
+          <t>letter/lettkh159.png</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>v</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>letter/letten121.png</t>
+          <t>letter/letten153.png</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B193" t="n">
         <v>3</v>
@@ -6980,26 +6980,26 @@
         <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ร</t>
+          <t>a</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>letter/lettth132.png</t>
+          <t>letter/letten011.png</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>σ</t>
+          <t>Λ</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>letter/lettgr062.png</t>
+          <t>letter/lettgr012.png</t>
         </is>
       </c>
     </row>
